--- a/Bitacoras/NRC_124_Grupo_43/Parcial_04/Bitacora_Laboratorio_Parcial_04_NRC_125.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_04/Bitacora_Laboratorio_Parcial_04_NRC_125.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A9BEA0-6D63-4F2B-8ED6-C9A2E48EE947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326327DF-1CD9-478B-B939-437BBB2F4B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2A222CE6-60EA-493B-AEDB-750A8BED5E05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Concentrado" sheetId="1" r:id="rId1"/>
+    <sheet name="Asistencias" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Concentrado!$A$1:$M$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>Alumno</t>
   </si>
@@ -227,15 +231,6 @@
     <t>P9 Encuadre</t>
   </si>
   <si>
-    <t>P9 Montaje</t>
-  </si>
-  <si>
-    <t>P9_Discusión</t>
-  </si>
-  <si>
-    <t>P9_Reporte</t>
-  </si>
-  <si>
     <t>Puntaje</t>
   </si>
   <si>
@@ -243,6 +238,9 @@
   </si>
   <si>
     <t>P8_Encuadre</t>
+  </si>
+  <si>
+    <t>Faltas</t>
   </si>
 </sst>
 </file>
@@ -286,12 +284,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +633,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A5FEB3-70C2-4AAD-9B93-229A9BEC2971}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="6720" ySplit="720" topLeftCell="L2" activePane="bottomLeft"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,14 +652,12 @@
     <col min="8" max="8" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +674,7 @@
         <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>59</v>
@@ -687,17 +694,11 @@
       <c r="L1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -710,6 +711,9 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
       <c r="F2" s="2">
         <v>5</v>
       </c>
@@ -717,16 +721,27 @@
         <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:K15" si="0">SUM(E2:J2)</f>
+        <v>25</v>
+      </c>
+      <c r="L2" s="3">
+        <f>(K2/30)*10</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -739,6 +754,9 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
       <c r="F3" s="2">
         <v>5</v>
       </c>
@@ -748,11 +766,25 @@
       <c r="H3" s="2">
         <v>5</v>
       </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
       <c r="J3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L15" si="1">(K3/30)*10</f>
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -765,6 +797,9 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
@@ -772,16 +807,27 @@
         <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -794,6 +840,9 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
@@ -803,11 +852,25 @@
       <c r="H5" s="2">
         <v>5</v>
       </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -820,6 +883,9 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
@@ -829,11 +895,25 @@
       <c r="H6" s="2">
         <v>5</v>
       </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -846,6 +926,9 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
@@ -853,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -861,8 +944,19 @@
       <c r="J7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -875,6 +969,9 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
       <c r="F8" s="2">
         <v>5</v>
       </c>
@@ -884,11 +981,25 @@
       <c r="H8" s="2">
         <v>5</v>
       </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
       <c r="J8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -901,6 +1012,9 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
@@ -910,11 +1024,25 @@
       <c r="H9" s="2">
         <v>5</v>
       </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
       <c r="J9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -927,6 +1055,9 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -937,13 +1068,24 @@
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -956,6 +1098,9 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="F11" s="2">
         <v>5</v>
       </c>
@@ -965,11 +1110,25 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
       <c r="J11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -982,6 +1141,9 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -992,13 +1154,24 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1011,6 +1184,9 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
       <c r="F13" s="2">
         <v>5</v>
       </c>
@@ -1020,11 +1196,25 @@
       <c r="H13" s="2">
         <v>5</v>
       </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
       <c r="J13" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1037,6 +1227,9 @@
       <c r="D14" t="s">
         <v>53</v>
       </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1046,11 +1239,25 @@
       <c r="H14" s="2">
         <v>5</v>
       </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
       <c r="J14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1063,8 +1270,11 @@
       <c r="D15" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
         <v>5</v>
@@ -1072,8 +1282,379 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
       <c r="J15" s="2">
         <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726EE138-FF0B-4378-8782-683B5F6C0C50}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5">
+        <v>45362</v>
+      </c>
+      <c r="F1" s="5">
+        <v>45369</v>
+      </c>
+      <c r="G1" s="5">
+        <v>45383</v>
+      </c>
+      <c r="H1" s="5">
+        <v>45359</v>
+      </c>
+      <c r="I1" s="5">
+        <v>45397</v>
+      </c>
+      <c r="J1" s="5">
+        <v>45404</v>
+      </c>
+      <c r="K1" s="5">
+        <v>45411</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <f>SUM(E2:K2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L15" si="0">SUM(E3:K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Bitacoras/NRC_124_Grupo_43/Parcial_04/Bitacora_Laboratorio_Parcial_04_NRC_125.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_04/Bitacora_Laboratorio_Parcial_04_NRC_125.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326327DF-1CD9-478B-B939-437BBB2F4B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7143A36-9DD0-484A-A84E-347341D98B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2A222CE6-60EA-493B-AEDB-750A8BED5E05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2A222CE6-60EA-493B-AEDB-750A8BED5E05}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentrado" sheetId="1" r:id="rId1"/>
@@ -635,12 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A5FEB3-70C2-4AAD-9B93-229A9BEC2971}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6720" ySplit="720" topLeftCell="L2" activePane="bottomLeft"/>
-      <selection activeCell="G1" sqref="G1"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726EE138-FF0B-4378-8782-683B5F6C0C50}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,10 +1318,11 @@
     <col min="8" max="8" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1359,11 +1356,17 @@
       <c r="K1" s="5">
         <v>45411</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5">
+        <v>45418</v>
+      </c>
+      <c r="M1" s="5">
+        <v>45425</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1382,12 +1385,12 @@
       <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <f>SUM(E2:K2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1400,12 +1403,12 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L15" si="0">SUM(E3:K3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N15" si="0">SUM(E3:K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1424,12 +1427,12 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1451,12 +1454,12 @@
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1469,12 +1472,12 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1490,12 +1493,12 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1508,12 +1511,12 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1526,12 +1529,12 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1550,12 +1553,12 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1571,12 +1574,12 @@
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1595,12 +1598,12 @@
       <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1613,12 +1616,12 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1631,12 +1634,12 @@
       <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1652,7 +1655,7 @@
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
